--- a/Manuscript/AJPH Submission/RR Submission/Table 1.xlsx
+++ b/Manuscript/AJPH Submission/RR Submission/Table 1.xlsx
@@ -224,13 +224,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,16 +241,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,16 +567,16 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B1" sqref="B1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="6" width="14.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0.77734375" customWidth="1"/>
-    <col min="8" max="9" width="14.77734375" customWidth="1"/>
+    <col min="8" max="9" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
@@ -618,42 +618,42 @@
     </row>
     <row r="5" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -705,7 +705,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,7 +726,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
@@ -747,7 +747,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,7 +768,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
@@ -789,7 +789,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -810,7 +810,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -831,7 +831,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -852,7 +852,7 @@
     </row>
     <row r="17" spans="1:9" ht="5.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="8"/>
@@ -863,7 +863,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
@@ -884,20 +884,20 @@
     </row>
     <row r="19" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -948,7 +948,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
@@ -969,7 +969,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="30" spans="1:9" ht="4.4000000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
@@ -1106,41 +1106,41 @@
     </row>
     <row r="31" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="22">
+      <c r="E31" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16">
         <v>-0.34</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="16">
         <v>-0.21</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1152,14 +1152,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B9:B19"/>
     <mergeCell ref="B22:B32"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
